--- a/Eksport -sortering varegrupper (Justerte SITC grupper).xlsx
+++ b/Eksport -sortering varegrupper (Justerte SITC grupper).xlsx
@@ -562,8 +562,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -584,6 +584,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -660,6 +661,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -781,5 +787,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80088AF0-2517-41B3-B02F-7B09AA4C9450}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FEDA7D-BE1C-4137-AA7B-62DFEF6A1AD7}"/>
 </file>
--- a/Eksport -sortering varegrupper (Justerte SITC grupper).xlsx
+++ b/Eksport -sortering varegrupper (Justerte SITC grupper).xlsx
@@ -557,15 +557,20 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -585,6 +590,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -667,6 +674,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -787,5 +816,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FEDA7D-BE1C-4137-AA7B-62DFEF6A1AD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A397FE8-70F8-4D5C-83DA-4907E016A163}"/>
 </file>
--- a/Eksport -sortering varegrupper (Justerte SITC grupper).xlsx
+++ b/Eksport -sortering varegrupper (Justerte SITC grupper).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perov\Trøndelag fylkeskommune\Seksjon Regional - Statistikk\PowerBI\næring\Eksport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/næring/Eksport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{23E41E84-F463-4AE1-A101-E0A30DDB7C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{360595A6-4F33-416A-8A45-A3E14DB46429}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{23E41E84-F463-4AE1-A101-E0A30DDB7C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F120A14C-8D6B-4BA7-8402-0EE266B1CE14}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" xr2:uid="{01357354-46F2-4E91-A7AB-7B4D8CF96C79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{01357354-46F2-4E91-A7AB-7B4D8CF96C79}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>Andre matvarer</t>
   </si>
   <si>
+    <t>rang</t>
+  </si>
+  <si>
     <t>Uoppgitt</t>
-  </si>
-  <si>
-    <t>rang</t>
   </si>
 </sst>
 </file>
@@ -429,23 +429,23 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -485,15 +485,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -501,23 +501,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -544,28 +544,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -585,6 +568,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -667,6 +652,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -768,10 +775,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177F68F7-0162-49F5-8ED3-B06F86BA0F01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E286A360-69E1-4838-A3F5-C61533CBE245}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -782,10 +823,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FEDA7D-BE1C-4137-AA7B-62DFEF6A1AD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177F68F7-0162-49F5-8ED3-B06F86BA0F01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Eksport -sortering varegrupper (Justerte SITC grupper).xlsx
+++ b/Eksport -sortering varegrupper (Justerte SITC grupper).xlsx
@@ -566,8 +566,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -592,6 +592,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -681,6 +682,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -816,5 +822,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A397FE8-70F8-4D5C-83DA-4907E016A163}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{351A2BCF-2F80-4D83-A23C-81828B213C04}"/>
 </file>